--- a/JOURNEES/J1/teams.xlsx
+++ b/JOURNEES/J1/teams.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcfir\Documents\Raid Info\classementsv2\TEST_TDJ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2E4FF620-83AA-4830-827A-7477ABB0BF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="teams_gen_tdn" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="teams_gen_tdn"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2197,325 +2191,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2527,223 +2228,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -2770,116 +2301,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2891,4580 +2388,4651 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1915533</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1915541</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1915532</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1915501</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1915559</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1915505</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1915553</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1915537</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>1915517</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1915566</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>1915544</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>1915504</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>1915560</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>1915547</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>1915561</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
         <v>1915573</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>1915552</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>1915570</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>1915538</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>1915567</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>1915554</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>1915502</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>1915515</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>1915558</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>1915510</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="I26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>1915521</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>1915578</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="I28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>1915522</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>1915520</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>1915576</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>1915572</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="I32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>1915518</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="I33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>1915564</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>1915516</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="I35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>1915519</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="I36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>1915523</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>1915562</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="I38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>1915531</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="I39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>1915535</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>1915543</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>1915511</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="I42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>1915512</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I43" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="I43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>1915545</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>1915555</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="I45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>1915568</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>1915507</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="I47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>1915549</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>1915540</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>1915571</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>1915503</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="I51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>1915534</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I52" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="I52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>1915527</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I53" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="I53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>1915524</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>1915551</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>1915574</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>1097514</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>1915509</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I58" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="I58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>1915528</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="I59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>1915506</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>1915556</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I61" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="I61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>1915513</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I62" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="I62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>1915508</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>1915580</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>1915579</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>1915565</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>1915529</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>1915525</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>1915530</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="I69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>1915536</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>1915546</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>1915557</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>1915563</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>1915569</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="I74" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="I74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>1915575</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I75" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="I75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>8027509</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I76" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="I76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>7001957</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="I77" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="I77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>1017029</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="I78" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="I78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>7005160</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="I79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>7001959</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="I80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>8017509</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I81" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="I81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>8007509</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>8037509</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="I83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="I83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>1017021</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="I84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>1017026</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I85" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="I85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>1017030</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>1017023</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I87" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="I87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>1017028</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="I88" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>1017024</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I89" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89">
+      <c r="I89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>1017027</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I90" t="s">
-        <v>16</v>
-      </c>
-      <c r="J90">
+      <c r="I90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>1017022</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="3">
         <v>92</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>1017025</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I92" t="s">
-        <v>16</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="I92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="3">
         <v>93</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>1017311</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I93" t="s">
-        <v>16</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="I93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="3">
         <v>94</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>1007308</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="I94" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="I94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="3">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>1007309</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="3">
         <v>96</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>1007317</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="I96" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="I96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="3">
         <v>97</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>1007320</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="I97" t="s">
-        <v>16</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="I97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="3">
         <v>98</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>1007303</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="3">
         <v>99</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>1007306</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="I99" t="s">
-        <v>16</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="I99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="3">
         <v>100</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>1017302</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="3">
         <v>101</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>1007305</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="I101" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101">
+      <c r="I101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="3">
         <v>102</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>1007318</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E102" t="s">
+      <c r="D102" s="2"/>
+      <c r="E102" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="I102" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="I102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="3">
         <v>103</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>1007304</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E103" t="s">
+      <c r="D103" s="2"/>
+      <c r="E103" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="3">
         <v>104</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>1007312</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E104" t="s">
+      <c r="D104" s="2"/>
+      <c r="E104" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="I104" t="s">
-        <v>16</v>
-      </c>
-      <c r="J104">
+      <c r="I104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="3">
         <v>105</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>1007301</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E105" t="s">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="I105" t="s">
-        <v>16</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="I105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="3">
         <v>106</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>1007313</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E106" t="s">
+      <c r="D106" s="2"/>
+      <c r="E106" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="I106" t="s">
-        <v>16</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="I106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="3">
         <v>107</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>1007315</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E107" t="s">
+      <c r="D107" s="2"/>
+      <c r="E107" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="J107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="3">
         <v>108</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>1007316</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E108" t="s">
+      <c r="D108" s="2"/>
+      <c r="E108" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="3">
         <v>109</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>1007314</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E109" t="s">
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="I109" t="s">
-        <v>16</v>
-      </c>
-      <c r="J109">
+      <c r="I109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="3">
         <v>110</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>1007310</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E110" t="s">
+      <c r="D110" s="2"/>
+      <c r="E110" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I110" t="s">
-        <v>16</v>
-      </c>
-      <c r="J110">
+      <c r="I110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="3">
         <v>111</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3">
         <v>1007319</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E111" t="s">
+      <c r="D111" s="2"/>
+      <c r="E111" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="I111" t="s">
-        <v>16</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="I111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="3">
         <v>113</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3">
         <v>1097506</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E112" t="s">
+      <c r="D112" s="2"/>
+      <c r="E112" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="I112" t="s">
-        <v>16</v>
-      </c>
-      <c r="J112">
+      <c r="I112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="3">
         <v>114</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3">
         <v>1097645</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="E113" t="s">
+      <c r="D113" s="2"/>
+      <c r="E113" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="3">
         <v>115</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <v>1097622</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E114" t="s">
+      <c r="D114" s="2"/>
+      <c r="E114" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="3">
         <v>116</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <v>1097548</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="E115" t="s">
+      <c r="D115" s="2"/>
+      <c r="E115" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="I115" t="s">
-        <v>16</v>
-      </c>
-      <c r="J115">
+      <c r="I115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="3">
         <v>117</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <v>1097546</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="E116" t="s">
+      <c r="D116" s="2"/>
+      <c r="E116" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="3">
         <v>118</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3">
         <v>1097517</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="E117" t="s">
+      <c r="D117" s="2"/>
+      <c r="E117" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I117" t="s">
-        <v>16</v>
-      </c>
-      <c r="J117">
+      <c r="I117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="A118" s="3">
         <v>119</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3">
         <v>1097541</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E118" t="s">
+      <c r="D118" s="2"/>
+      <c r="E118" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="3">
         <v>120</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <v>1097539</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E119" t="s">
+      <c r="D119" s="2"/>
+      <c r="E119" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="3">
         <v>121</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <v>1097509</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E120" t="s">
+      <c r="D120" s="2"/>
+      <c r="E120" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="I120" t="s">
-        <v>16</v>
-      </c>
-      <c r="J120">
+      <c r="I120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="3">
         <v>122</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3">
         <v>1097535</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E121" t="s">
+      <c r="D121" s="2"/>
+      <c r="E121" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="J121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="3">
         <v>123</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <v>1097511</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="E122" t="s">
+      <c r="D122" s="2"/>
+      <c r="E122" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="3">
         <v>124</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>1097527</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E123" t="s">
+      <c r="D123" s="2"/>
+      <c r="E123" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="3">
         <v>125</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3">
         <v>1097512</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E124" t="s">
+      <c r="D124" s="2"/>
+      <c r="E124" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="3">
         <v>126</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <v>1097505</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E125" t="s">
+      <c r="D125" s="2"/>
+      <c r="E125" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="3">
         <v>127</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <v>1097537</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="E126" t="s">
+      <c r="D126" s="2"/>
+      <c r="E126" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="3">
         <v>128</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>1097540</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="E127" t="s">
+      <c r="D127" s="2"/>
+      <c r="E127" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="3">
         <v>129</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <v>1097507</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E128" t="s">
+      <c r="D128" s="2"/>
+      <c r="E128" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="I128" t="s">
-        <v>16</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="I128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="3">
         <v>130</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>1097531</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="E129" t="s">
+      <c r="D129" s="2"/>
+      <c r="E129" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="I129" t="s">
-        <v>16</v>
-      </c>
-      <c r="J129">
+      <c r="I129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="A130" s="3">
         <v>131</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <v>1097543</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="E130" t="s">
+      <c r="D130" s="2"/>
+      <c r="E130" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="I130" t="s">
-        <v>16</v>
-      </c>
-      <c r="J130">
+      <c r="I130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="A131" s="3">
         <v>132</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3">
         <v>1097504</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="E131" t="s">
+      <c r="D131" s="2"/>
+      <c r="E131" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="A132" s="3">
         <v>133</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <v>1097520</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="E132" t="s">
+      <c r="D132" s="2"/>
+      <c r="E132" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="A133" s="3">
         <v>134</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <v>1097524</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="E133" t="s">
+      <c r="D133" s="2"/>
+      <c r="E133" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="I133" t="s">
-        <v>16</v>
-      </c>
-      <c r="J133">
+      <c r="I133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="A134" s="3">
         <v>135</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="3">
         <v>1097534</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E134" t="s">
+      <c r="D134" s="2"/>
+      <c r="E134" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="I134" t="s">
-        <v>16</v>
-      </c>
-      <c r="J134">
+      <c r="I134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="A135" s="3">
         <v>136</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3">
         <v>1097623</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="E135" t="s">
+      <c r="D135" s="2"/>
+      <c r="E135" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="A136" s="3">
         <v>137</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>1097533</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E136" t="s">
+      <c r="D136" s="2"/>
+      <c r="E136" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="I136" t="s">
-        <v>16</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="I136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="A137" s="3">
         <v>138</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <v>1097516</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="E137" t="s">
+      <c r="D137" s="2"/>
+      <c r="E137" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+      <c r="A138" s="3">
         <v>139</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3">
         <v>1097526</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="E138" t="s">
+      <c r="D138" s="2"/>
+      <c r="E138" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="3">
         <v>140</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3">
         <v>1097536</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="E139" t="s">
+      <c r="D139" s="2"/>
+      <c r="E139" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="J139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="A140" s="3">
         <v>141</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>1097501</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E140" t="s">
+      <c r="D140" s="2"/>
+      <c r="E140" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="J140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="A141" s="3">
         <v>142</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <v>1097515</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="E141" t="s">
+      <c r="D141" s="2"/>
+      <c r="E141" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="A142" s="3">
         <v>143</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <v>1097529</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="E142" t="s">
+      <c r="D142" s="2"/>
+      <c r="E142" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="I142" t="s">
-        <v>16</v>
-      </c>
-      <c r="J142">
+      <c r="I142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="A143" s="3">
         <v>145</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <v>1097508</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="E143" t="s">
+      <c r="D143" s="2"/>
+      <c r="E143" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="3">
         <v>0</v>
       </c>
     </row>
